--- a/film studios market shares.xlsx
+++ b/film studios market shares.xlsx
@@ -9,12 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{58029983-F926-4C5C-8DC3-D29F8BCD0286}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{58029983-F926-4C5C-8DC3-D29F8BCD0286}"/>
   </bookViews>
   <sheets>
     <sheet name="market shares" sheetId="1" r:id="rId1"/>
-    <sheet name="plot" sheetId="3" r:id="rId2"/>
-    <sheet name="HHI" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Disney</t>
   </si>
@@ -50,12 +48,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>1/HHI</t>
-  </si>
-  <si>
-    <t>HHI</t>
   </si>
 </sst>
 </file>
@@ -419,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D52A1C9-E3B5-4192-941B-38CE321F0C6E}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
@@ -984,774 +976,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA139AB-F6DA-453E-92DD-EE1FBDDF363C}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B2">
-        <v>20.3</v>
-      </c>
-      <c r="C2">
-        <v>17.2</v>
-      </c>
-      <c r="D2">
-        <v>14.3</v>
-      </c>
-      <c r="E2">
-        <v>10.7</v>
-      </c>
-      <c r="F2">
-        <v>10.3</v>
-      </c>
-      <c r="G2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H2">
-        <v>9.6</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I19" si="0">100-SUM(B2:H2)</f>
-        <v>7.8000000000000114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B3">
-        <v>18.5</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>11.8</v>
-      </c>
-      <c r="E3">
-        <v>11.3</v>
-      </c>
-      <c r="F3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G3">
-        <v>11.2</v>
-      </c>
-      <c r="H3">
-        <v>10.7</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>9.5999999999999943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B4">
-        <v>15.7</v>
-      </c>
-      <c r="C4">
-        <v>21.3</v>
-      </c>
-      <c r="D4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E4">
-        <v>7.4</v>
-      </c>
-      <c r="F4">
-        <v>5.2</v>
-      </c>
-      <c r="G4">
-        <v>11.6</v>
-      </c>
-      <c r="H4">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>11.599999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>12.7</v>
-      </c>
-      <c r="E5">
-        <v>7.2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H5">
-        <v>13.4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B6">
-        <v>16.3</v>
-      </c>
-      <c r="C6">
-        <v>17.8</v>
-      </c>
-      <c r="D6">
-        <v>10.9</v>
-      </c>
-      <c r="E6">
-        <v>6.8</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>11.8</v>
-      </c>
-      <c r="H6">
-        <v>14.7</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>11.700000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B7">
-        <v>12.5</v>
-      </c>
-      <c r="C7">
-        <v>21.7</v>
-      </c>
-      <c r="D7">
-        <v>13.2</v>
-      </c>
-      <c r="E7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F7">
-        <v>5.7</v>
-      </c>
-      <c r="G7">
-        <v>16.5</v>
-      </c>
-      <c r="H7">
-        <v>11.1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B8">
-        <v>16.7</v>
-      </c>
-      <c r="C8">
-        <v>14.9</v>
-      </c>
-      <c r="D8">
-        <v>10.8</v>
-      </c>
-      <c r="E8">
-        <v>10.8</v>
-      </c>
-      <c r="F8">
-        <v>0.2</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>19.2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>10.399999999999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B9">
-        <v>15.3</v>
-      </c>
-      <c r="C9">
-        <v>20.5</v>
-      </c>
-      <c r="D9">
-        <v>12.7</v>
-      </c>
-      <c r="E9">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>11.9</v>
-      </c>
-      <c r="H9">
-        <v>13.3</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>10.200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B10">
-        <v>11.4</v>
-      </c>
-      <c r="C10">
-        <v>19.7</v>
-      </c>
-      <c r="D10">
-        <v>13.1</v>
-      </c>
-      <c r="E10">
-        <v>17.3</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>12.8</v>
-      </c>
-      <c r="H10">
-        <v>13.6</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>12.100000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B11">
-        <v>12.1</v>
-      </c>
-      <c r="C11">
-        <v>20.2</v>
-      </c>
-      <c r="D11">
-        <v>10.1</v>
-      </c>
-      <c r="E11">
-        <v>14.5</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>15.5</v>
-      </c>
-      <c r="H11">
-        <v>14.1</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B12">
-        <v>13.9</v>
-      </c>
-      <c r="C12">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>16.2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>15.3</v>
-      </c>
-      <c r="H12">
-        <v>12.6</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>13.900000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B13">
-        <v>12.2</v>
-      </c>
-      <c r="C13">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D13">
-        <v>11.5</v>
-      </c>
-      <c r="E13">
-        <v>19.3</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>11.1</v>
-      </c>
-      <c r="H13">
-        <v>13.4</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>14.600000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B14">
-        <v>13.9</v>
-      </c>
-      <c r="C14">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D14">
-        <v>13.2</v>
-      </c>
-      <c r="E14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H14">
-        <v>16.5</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>20.099999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B15">
-        <v>14.9</v>
-      </c>
-      <c r="C15">
-        <v>21.3</v>
-      </c>
-      <c r="D15">
-        <v>13.3</v>
-      </c>
-      <c r="E15">
-        <v>8.4</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H15">
-        <v>10.6</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>21.300000000000011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B16">
-        <v>14.9</v>
-      </c>
-      <c r="C16">
-        <v>18.8</v>
-      </c>
-      <c r="D16">
-        <v>11.4</v>
-      </c>
-      <c r="E16">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>15.300000000000011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B17">
-        <v>19.8</v>
-      </c>
-      <c r="C17">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D17">
-        <v>22.3</v>
-      </c>
-      <c r="E17">
-        <v>5.9</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>12.4</v>
-      </c>
-      <c r="H17">
-        <v>8.9</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>13.799999999999983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B18">
-        <v>26.3</v>
-      </c>
-      <c r="C18">
-        <v>16.7</v>
-      </c>
-      <c r="D18">
-        <v>14.1</v>
-      </c>
-      <c r="E18">
-        <v>7.7</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>13.3</v>
-      </c>
-      <c r="H18">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>13.600000000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B19">
-        <v>21.8</v>
-      </c>
-      <c r="C19">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>4.8</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>12.9</v>
-      </c>
-      <c r="H19">
-        <v>9.9</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>17.199999999999989</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943309A2-4C41-4678-832F-2B4FE05225B0}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2002</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2003</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0.13212000000000002</v>
-      </c>
-      <c r="C2">
-        <v>0.135712</v>
-      </c>
-      <c r="D2">
-        <v>0.13153399999999998</v>
-      </c>
-      <c r="E2">
-        <v>0.14657799999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.12029100000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.13253699999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.139186</v>
-      </c>
-      <c r="I2">
-        <v>0.13933400000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.13377500000000001</v>
-      </c>
-      <c r="K2">
-        <v>0.130577</v>
-      </c>
-      <c r="L2">
-        <v>0.12943100000000002</v>
-      </c>
-      <c r="M2">
-        <v>0.12767600000000001</v>
-      </c>
-      <c r="N2">
-        <v>0.113139</v>
-      </c>
-      <c r="O2">
-        <v>0.113955</v>
-      </c>
-      <c r="P2">
-        <v>0.126391</v>
-      </c>
-      <c r="Q2">
-        <v>0.14427199999999998</v>
-      </c>
-      <c r="R2">
-        <v>0.14744600000000002</v>
-      </c>
-      <c r="S2">
-        <v>0.13262599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>7.5688767786860423</v>
-      </c>
-      <c r="C3">
-        <v>7.368545154444706</v>
-      </c>
-      <c r="D3">
-        <v>7.602597047151308</v>
-      </c>
-      <c r="E3">
-        <v>6.8223062123920375</v>
-      </c>
-      <c r="F3">
-        <v>8.3131738866581859</v>
-      </c>
-      <c r="G3">
-        <v>7.5450628880991726</v>
-      </c>
-      <c r="H3">
-        <v>7.1846306381388931</v>
-      </c>
-      <c r="I3">
-        <v>7.1769991531140995</v>
-      </c>
-      <c r="J3">
-        <v>7.4752382732199587</v>
-      </c>
-      <c r="K3">
-        <v>7.6583165488562308</v>
-      </c>
-      <c r="L3">
-        <v>7.7261243442451955</v>
-      </c>
-      <c r="M3">
-        <v>7.832325574109464</v>
-      </c>
-      <c r="N3">
-        <v>8.8386851571960161</v>
-      </c>
-      <c r="O3">
-        <v>8.7753937957965871</v>
-      </c>
-      <c r="P3">
-        <v>7.91195575634341</v>
-      </c>
-      <c r="Q3">
-        <v>6.9313518908727962</v>
-      </c>
-      <c r="R3">
-        <v>6.7821439713522231</v>
-      </c>
-      <c r="S3">
-        <v>7.5399996984000124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>